--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/revan/workspace/Selenium-practise/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{877E8513-E6B0-4C4C-9275-DB7A72508F61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E84398-C96A-6143-BCED-08880DC858F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{CB47F0A9-6A70-AE4C-BDB3-A6207C7AD74C}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Username</t>
   </si>
@@ -58,19 +58,28 @@
   </si>
   <si>
     <t>Colt</t>
+  </si>
+  <si>
+    <t>TestCases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF6A8759"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,15 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5578EF8D-C027-B743-9D13-0AD6D664DDFE}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,8 +437,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -436,7 +449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -444,7 +457,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
